--- a/biology/Médecine/Relation_d'aide_en_soins_infirmiers/Relation_d'aide_en_soins_infirmiers.xlsx
+++ b/biology/Médecine/Relation_d'aide_en_soins_infirmiers/Relation_d'aide_en_soins_infirmiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Relation_d%27aide_en_soins_infirmiers</t>
+          <t>Relation_d'aide_en_soins_infirmiers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La relation d'aide en soins infirmiers désigne les processus par lesquels l'infirmier va pouvoir prendre le rôle d'aidant auprès d'une personne en difficulté afin de l'aider à surmonter une crise. Elle se différencie de l'aspect relationnel en soins infirmiers.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Relation_d%27aide_en_soins_infirmiers</t>
+          <t>Relation_d'aide_en_soins_infirmiers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,29 +523,135 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pour un professionnel, la relation d'aide est avant tout un savoir être. La relation est centrée sur la personne en demande ou en souffrance. Elle permet de l'accompagner dans son parcours de vie. Il ne s'agit pas de trouver ou d'apporter les solutions, mais plutôt de cheminer et d'aider la personne à trouver par elle-même sa solution. La relation d'aide est une forme d'accompagnement, même si parfois elle nécessite des interventions plus marquées. En fonction de l'expérience et des observations chez la personne, le savoir-être permettra d'intervenir ou non selon un jugement clinique.
-Le point culminant de la relation d'aide est de reconnaître le ressenti de la personne soignée : reconnaître ses affects, ses émotions, c'est la reconnaître en tant qu'être humain. Selon Hildegard Peplau[1], la relation d'aide est un système de liens révélant chez une personne, une représentation de son monde et un processus d'intégration de ses besoins. Le but de la relation d'aide est d'identifier la représentation, le modèle du monde de la personne. Dans une perspective interactionniste, les besoins de l'infirmier vont s'articuler à ceux de la personne soignée ; le lien va permettre un développement et une croissance pour chacun des deux : la personne soignée et l'infirmier.
-Objectifs
-Selon Hélène Lazure, la relation d'aide vise l'un ou l'autre des objectifs suivants chez la personne aidée[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour un professionnel, la relation d'aide est avant tout un savoir être. La relation est centrée sur la personne en demande ou en souffrance. Elle permet de l'accompagner dans son parcours de vie. Il ne s'agit pas de trouver ou d'apporter les solutions, mais plutôt de cheminer et d'aider la personne à trouver par elle-même sa solution. La relation d'aide est une forme d'accompagnement, même si parfois elle nécessite des interventions plus marquées. En fonction de l'expérience et des observations chez la personne, le savoir-être permettra d'intervenir ou non selon un jugement clinique.
+Le point culminant de la relation d'aide est de reconnaître le ressenti de la personne soignée : reconnaître ses affects, ses émotions, c'est la reconnaître en tant qu'être humain. Selon Hildegard Peplau, la relation d'aide est un système de liens révélant chez une personne, une représentation de son monde et un processus d'intégration de ses besoins. Le but de la relation d'aide est d'identifier la représentation, le modèle du monde de la personne. Dans une perspective interactionniste, les besoins de l'infirmier vont s'articuler à ceux de la personne soignée ; le lien va permettre un développement et une croissance pour chacun des deux : la personne soignée et l'infirmier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Relation_d'aide_en_soins_infirmiers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Relation_d%27aide_en_soins_infirmiers</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Objectifs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Hélène Lazure, la relation d'aide vise l'un ou l'autre des objectifs suivants chez la personne aidée :
 traverser une épreuve
 résoudre une situation de vie actuelle ou potentiellement problématique
 trouver un fonctionnement personnel plus satisfaisant
 détecter le sens de l'existence
-Selon Carl Rogers, ce sont des relations dans lesquelles, l'un au moins des deux protagonistes cherche à favoriser chez l'autre[3] :
+Selon Carl Rogers, ce sont des relations dans lesquelles, l'un au moins des deux protagonistes cherche à favoriser chez l'autre :
 la croissance
 le développement
 la maturité
 le meilleur fonctionnement et une plus grande capacité d'affronter la vie
 une appréciation plus grande des ressources latentes de l'individu
 une plus grande possibilité d'expression
-un meilleur usage fonctionnel de ses ressources
-Relation soignant/soigné
-Voilà l'essence des soins infirmiers : la relation du professionnel de la santé et d'une personne. Tout naît de cette rencontre. La relation d'aide est le fil conducteur des soins infirmiers, la base de la confiance que le soigné met dans le soignant.
+un meilleur usage fonctionnel de ses ressources</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Relation_d'aide_en_soins_infirmiers</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Relation_d%27aide_en_soins_infirmiers</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Relation soignant/soigné</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voilà l'essence des soins infirmiers : la relation du professionnel de la santé et d'une personne. Tout naît de cette rencontre. La relation d'aide est le fil conducteur des soins infirmiers, la base de la confiance que le soigné met dans le soignant.
 Il s'agit d'une relation bilatérale, et non unilatérale avec d'un côté le professionnel qui sait tout (ou pas) et de l'autre la personne soignée qui reçoit passivement. La réalité est bien plus complexe. Nous ne devons jamais oublier ce point : c'est la personne qui nous demande de l'aide qui sait mieux que quiconque (de manière consciente ou inconsciente) quel est son problème. C'est pourquoi l'écoute est fondamentale. La relation d'aide nécessite des compétences spécifiques afin de répondre au plus près des besoins de la personne malade.
-Compétences infirmières
-la disponibilité en tant qu'attitude mentale
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Relation_d'aide_en_soins_infirmiers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Relation_d%27aide_en_soins_infirmiers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Compétences infirmières</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>la disponibilité en tant qu'attitude mentale
 l'écoute silencieuse et l'écoute active
 la maîtrise d'outils de communication
 une connaissance de soi avancée
@@ -544,9 +662,43 @@
 les interventions exploratrices : utilisation de questions ouvertes
 respecter le silence de la personne si tel est son désir, mais également savoir briser les silences trop lourds de sens
 les interventions affectives : l'aide à la verbalisation, aider la personne à trouver les mots pour exprimer ce qu'elle ressent
-repérer et identifier les affects chez l'autre
-Difficultés
-Les situations problématiques qui représentent parfois un frein à la relation d'aide :
+repérer et identifier les affects chez l'autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Relation_d'aide_en_soins_infirmiers</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Relation_d%27aide_en_soins_infirmiers</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Difficultés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les situations problématiques qui représentent parfois un frein à la relation d'aide :
 l'organisation des soins et la charge de travail
 l'absence d'objectifs déterminés avec la personne soignée
 la non-reconnaissance de l'aspect relationnel des soins, autant par les professionnels de santé que par les institutions
@@ -559,33 +711,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Relation_d%27aide_en_soins_infirmiers</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Relation_d'aide_en_soins_infirmiers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Relation_d%27aide_en_soins_infirmiers</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Diagnostics infirmiers prévalents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sont prévalents en relation d'aide les diagnostics infirmiers suivants[4] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sont prévalents en relation d'aide les diagnostics infirmiers suivants :
 Angoisse face à la mort
 Anxiété
 Automutilation
@@ -647,31 +801,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Relation_d%27aide_en_soins_infirmiers</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Relation_d'aide_en_soins_infirmiers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Relation_d%27aide_en_soins_infirmiers</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Cadre réglementaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>En France, le cadre réglementaire de la relation d'aide se réfère au code de la santé publique, livre III Auxiliaires médicaux - Profession d'infirmier, chapitre 1er, section 1, Actes professionnels ou décret n°2004-802 du 29 juillet 2004, article R. 4311-5 :
 40° Entretien d'accueil privilégiant l'écoute de la personne avec orientation si nécessaire ;
